--- a/natmiOut/OldD4/LR-pairs_lrc2p/Angpt4-Tek.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Angpt4-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.979869333942334</v>
+        <v>1.106140333333333</v>
       </c>
       <c r="H2">
-        <v>0.979869333942334</v>
+        <v>3.318421</v>
       </c>
       <c r="I2">
-        <v>0.5761099218124525</v>
+        <v>0.5836012156288556</v>
       </c>
       <c r="J2">
-        <v>0.5761099218124525</v>
+        <v>0.6713650186321631</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.7837376171942</v>
+        <v>58.63918933333334</v>
       </c>
       <c r="N2">
-        <v>56.7837376171942</v>
+        <v>175.917568</v>
       </c>
       <c r="O2">
-        <v>0.9267119681372367</v>
+        <v>0.915320670669077</v>
       </c>
       <c r="P2">
-        <v>0.9267119681372367</v>
+        <v>0.923685878527411</v>
       </c>
       <c r="Q2">
-        <v>55.64064315771633</v>
+        <v>64.86317243556978</v>
       </c>
       <c r="R2">
-        <v>55.64064315771633</v>
+        <v>583.7685519201281</v>
       </c>
       <c r="S2">
-        <v>0.5338879595062074</v>
+        <v>0.5341822560926927</v>
       </c>
       <c r="T2">
-        <v>0.5338879595062074</v>
+        <v>0.6201303870478213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.979869333942334</v>
+        <v>1.106140333333333</v>
       </c>
       <c r="H3">
-        <v>0.979869333942334</v>
+        <v>3.318421</v>
       </c>
       <c r="I3">
-        <v>0.5761099218124525</v>
+        <v>0.5836012156288556</v>
       </c>
       <c r="J3">
-        <v>0.5761099218124525</v>
+        <v>0.6713650186321631</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.29472873538252</v>
+        <v>3.605681</v>
       </c>
       <c r="N3">
-        <v>3.29472873538252</v>
+        <v>10.817043</v>
       </c>
       <c r="O3">
-        <v>0.05377005246516409</v>
+        <v>0.05628240070608663</v>
       </c>
       <c r="P3">
-        <v>0.05377005246516409</v>
+        <v>0.0567967712384688</v>
       </c>
       <c r="Q3">
-        <v>3.228403651459938</v>
+        <v>3.988389183233667</v>
       </c>
       <c r="R3">
-        <v>3.228403651459938</v>
+        <v>35.895502649103</v>
       </c>
       <c r="S3">
-        <v>0.03097746072155715</v>
+        <v>0.03284647747058252</v>
       </c>
       <c r="T3">
-        <v>0.03097746072155715</v>
+        <v>0.03813136538076132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.979869333942334</v>
+        <v>1.106140333333333</v>
       </c>
       <c r="H4">
-        <v>0.979869333942334</v>
+        <v>3.318421</v>
       </c>
       <c r="I4">
-        <v>0.5761099218124525</v>
+        <v>0.5836012156288556</v>
       </c>
       <c r="J4">
-        <v>0.5761099218124525</v>
+        <v>0.6713650186321631</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.19595285162752</v>
+        <v>0.045876</v>
       </c>
       <c r="N4">
-        <v>1.19595285162752</v>
+        <v>0.137628</v>
       </c>
       <c r="O4">
-        <v>0.01951797939759928</v>
+        <v>0.0007160953547450344</v>
       </c>
       <c r="P4">
-        <v>0.01951797939759928</v>
+        <v>0.0007226398223625426</v>
       </c>
       <c r="Q4">
-        <v>1.171877524150693</v>
+        <v>0.05074529393199999</v>
       </c>
       <c r="R4">
-        <v>1.171877524150693</v>
+        <v>0.456707645388</v>
       </c>
       <c r="S4">
-        <v>0.01124450158468798</v>
+        <v>0.0004179141195353786</v>
       </c>
       <c r="T4">
-        <v>0.01124450158468798</v>
+        <v>0.0004851550978047715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.720968122318872</v>
+        <v>1.106140333333333</v>
       </c>
       <c r="H5">
-        <v>0.720968122318872</v>
+        <v>3.318421</v>
       </c>
       <c r="I5">
-        <v>0.4238900781875475</v>
+        <v>0.5836012156288556</v>
       </c>
       <c r="J5">
-        <v>0.4238900781875475</v>
+        <v>0.6713650186321631</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>56.7837376171942</v>
+        <v>0.03279</v>
       </c>
       <c r="N5">
-        <v>56.7837376171942</v>
+        <v>0.09837</v>
       </c>
       <c r="O5">
-        <v>0.9267119681372367</v>
+        <v>0.0005118311684124526</v>
       </c>
       <c r="P5">
-        <v>0.9267119681372367</v>
+        <v>0.0005165088450446371</v>
       </c>
       <c r="Q5">
-        <v>40.939264688116</v>
+        <v>0.03627034153</v>
       </c>
       <c r="R5">
-        <v>40.939264688116</v>
+        <v>0.32643307377</v>
       </c>
       <c r="S5">
-        <v>0.3928240086310293</v>
+        <v>0.0002987052920822449</v>
       </c>
       <c r="T5">
-        <v>0.3928240086310293</v>
+        <v>0.0003467659703770698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.720968122318872</v>
+        <v>1.106140333333333</v>
       </c>
       <c r="H6">
-        <v>0.720968122318872</v>
+        <v>3.318421</v>
       </c>
       <c r="I6">
-        <v>0.4238900781875475</v>
+        <v>0.5836012156288556</v>
       </c>
       <c r="J6">
-        <v>0.4238900781875475</v>
+        <v>0.6713650186321631</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.29472873538252</v>
+        <v>1.7405575</v>
       </c>
       <c r="N6">
-        <v>3.29472873538252</v>
+        <v>3.481115</v>
       </c>
       <c r="O6">
-        <v>0.05377005246516409</v>
+        <v>0.02716900210167909</v>
       </c>
       <c r="P6">
-        <v>0.05377005246516409</v>
+        <v>0.01827820156671304</v>
       </c>
       <c r="Q6">
-        <v>2.375394389898767</v>
+        <v>1.925300853235833</v>
       </c>
       <c r="R6">
-        <v>2.375394389898767</v>
+        <v>11.551805119415</v>
       </c>
       <c r="S6">
-        <v>0.02279259174360694</v>
+        <v>0.01585586265396285</v>
       </c>
       <c r="T6">
-        <v>0.02279259174360694</v>
+        <v>0.01227134513539874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04591633333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.137749</v>
+      </c>
+      <c r="I7">
+        <v>0.02422552287719347</v>
+      </c>
+      <c r="J7">
+        <v>0.02786863389291529</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>58.63918933333334</v>
+      </c>
+      <c r="N7">
+        <v>175.917568</v>
+      </c>
+      <c r="O7">
+        <v>0.915320670669077</v>
+      </c>
+      <c r="P7">
+        <v>0.923685878527411</v>
+      </c>
+      <c r="Q7">
+        <v>2.692496563825778</v>
+      </c>
+      <c r="R7">
+        <v>24.232469074432</v>
+      </c>
+      <c r="S7">
+        <v>0.02217412184726179</v>
+      </c>
+      <c r="T7">
+        <v>0.02574186358073624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04591633333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.137749</v>
+      </c>
+      <c r="I8">
+        <v>0.02422552287719347</v>
+      </c>
+      <c r="J8">
+        <v>0.02786863389291529</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.605681</v>
+      </c>
+      <c r="N8">
+        <v>10.817043</v>
+      </c>
+      <c r="O8">
+        <v>0.05628240070608663</v>
+      </c>
+      <c r="P8">
+        <v>0.0567967712384688</v>
+      </c>
+      <c r="Q8">
+        <v>0.1655596506896667</v>
+      </c>
+      <c r="R8">
+        <v>1.490036856207</v>
+      </c>
+      <c r="S8">
+        <v>0.001363470585888672</v>
+      </c>
+      <c r="T8">
+        <v>0.001582848423944548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04591633333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.137749</v>
+      </c>
+      <c r="I9">
+        <v>0.02422552287719347</v>
+      </c>
+      <c r="J9">
+        <v>0.02786863389291529</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.045876</v>
+      </c>
+      <c r="N9">
+        <v>0.137628</v>
+      </c>
+      <c r="O9">
+        <v>0.0007160953547450344</v>
+      </c>
+      <c r="P9">
+        <v>0.0007226398223625426</v>
+      </c>
+      <c r="Q9">
+        <v>0.002106457708</v>
+      </c>
+      <c r="R9">
+        <v>0.018958119372</v>
+      </c>
+      <c r="S9">
+        <v>1.73477843986278E-05</v>
+      </c>
+      <c r="T9">
+        <v>2.013898464586304E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04591633333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.137749</v>
+      </c>
+      <c r="I10">
+        <v>0.02422552287719347</v>
+      </c>
+      <c r="J10">
+        <v>0.02786863389291529</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03279</v>
+      </c>
+      <c r="N10">
+        <v>0.09837</v>
+      </c>
+      <c r="O10">
+        <v>0.0005118311684124526</v>
+      </c>
+      <c r="P10">
+        <v>0.0005165088450446371</v>
+      </c>
+      <c r="Q10">
+        <v>0.00150559657</v>
+      </c>
+      <c r="R10">
+        <v>0.01355036913</v>
+      </c>
+      <c r="S10">
+        <v>1.239937767963654E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.43943959050015E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04591633333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.137749</v>
+      </c>
+      <c r="I11">
+        <v>0.02422552287719347</v>
+      </c>
+      <c r="J11">
+        <v>0.02786863389291529</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.7405575</v>
+      </c>
+      <c r="N11">
+        <v>3.481115</v>
+      </c>
+      <c r="O11">
+        <v>0.02716900210167909</v>
+      </c>
+      <c r="P11">
+        <v>0.01827820156671304</v>
+      </c>
+      <c r="Q11">
+        <v>0.07992001835583334</v>
+      </c>
+      <c r="R11">
+        <v>0.479520110135</v>
+      </c>
+      <c r="S11">
+        <v>0.0006581832819647443</v>
+      </c>
+      <c r="T11">
+        <v>0.0005093885076836365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7433135</v>
+      </c>
+      <c r="H12">
+        <v>1.486627</v>
+      </c>
+      <c r="I12">
+        <v>0.3921732614939509</v>
+      </c>
+      <c r="J12">
+        <v>0.3007663474749216</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>58.63918933333334</v>
+      </c>
+      <c r="N12">
+        <v>175.917568</v>
+      </c>
+      <c r="O12">
+        <v>0.915320670669077</v>
+      </c>
+      <c r="P12">
+        <v>0.923685878527411</v>
+      </c>
+      <c r="Q12">
+        <v>43.58730106052267</v>
+      </c>
+      <c r="R12">
+        <v>261.523806363136</v>
+      </c>
+      <c r="S12">
+        <v>0.3589642927291224</v>
+      </c>
+      <c r="T12">
+        <v>0.2778136278988535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7433135</v>
+      </c>
+      <c r="H13">
+        <v>1.486627</v>
+      </c>
+      <c r="I13">
+        <v>0.3921732614939509</v>
+      </c>
+      <c r="J13">
+        <v>0.3007663474749216</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.605681</v>
+      </c>
+      <c r="N13">
+        <v>10.817043</v>
+      </c>
+      <c r="O13">
+        <v>0.05628240070608663</v>
+      </c>
+      <c r="P13">
+        <v>0.0567967712384688</v>
+      </c>
+      <c r="Q13">
+        <v>2.6801513639935</v>
+      </c>
+      <c r="R13">
+        <v>16.080908183961</v>
+      </c>
+      <c r="S13">
+        <v>0.02207245264961544</v>
+      </c>
+      <c r="T13">
+        <v>0.01708255743376294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7433135</v>
+      </c>
+      <c r="H14">
+        <v>1.486627</v>
+      </c>
+      <c r="I14">
+        <v>0.3921732614939509</v>
+      </c>
+      <c r="J14">
+        <v>0.3007663474749216</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.045876</v>
+      </c>
+      <c r="N14">
+        <v>0.137628</v>
+      </c>
+      <c r="O14">
+        <v>0.0007160953547450344</v>
+      </c>
+      <c r="P14">
+        <v>0.0007226398223625426</v>
+      </c>
+      <c r="Q14">
+        <v>0.034100250126</v>
+      </c>
+      <c r="R14">
+        <v>0.204601500756</v>
+      </c>
+      <c r="S14">
+        <v>0.0002808334508110279</v>
+      </c>
+      <c r="T14">
+        <v>0.0002173457399119081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.720968122318872</v>
-      </c>
-      <c r="H7">
-        <v>0.720968122318872</v>
-      </c>
-      <c r="I7">
-        <v>0.4238900781875475</v>
-      </c>
-      <c r="J7">
-        <v>0.4238900781875475</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.19595285162752</v>
-      </c>
-      <c r="N7">
-        <v>1.19595285162752</v>
-      </c>
-      <c r="O7">
-        <v>0.01951797939759928</v>
-      </c>
-      <c r="P7">
-        <v>0.01951797939759928</v>
-      </c>
-      <c r="Q7">
-        <v>0.8622438818197936</v>
-      </c>
-      <c r="R7">
-        <v>0.8622438818197936</v>
-      </c>
-      <c r="S7">
-        <v>0.0082734778129113</v>
-      </c>
-      <c r="T7">
-        <v>0.0082734778129113</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7433135</v>
+      </c>
+      <c r="H15">
+        <v>1.486627</v>
+      </c>
+      <c r="I15">
+        <v>0.3921732614939509</v>
+      </c>
+      <c r="J15">
+        <v>0.3007663474749216</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03279</v>
+      </c>
+      <c r="N15">
+        <v>0.09837</v>
+      </c>
+      <c r="O15">
+        <v>0.0005118311684124526</v>
+      </c>
+      <c r="P15">
+        <v>0.0005165088450446371</v>
+      </c>
+      <c r="Q15">
+        <v>0.024373249665</v>
+      </c>
+      <c r="R15">
+        <v>0.14623949799</v>
+      </c>
+      <c r="S15">
+        <v>0.0002007264986505712</v>
+      </c>
+      <c r="T15">
+        <v>0.0001553484787625658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7433135</v>
+      </c>
+      <c r="H16">
+        <v>1.486627</v>
+      </c>
+      <c r="I16">
+        <v>0.3921732614939509</v>
+      </c>
+      <c r="J16">
+        <v>0.3007663474749216</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.7405575</v>
+      </c>
+      <c r="N16">
+        <v>3.481115</v>
+      </c>
+      <c r="O16">
+        <v>0.02716900210167909</v>
+      </c>
+      <c r="P16">
+        <v>0.01827820156671304</v>
+      </c>
+      <c r="Q16">
+        <v>1.29377988727625</v>
+      </c>
+      <c r="R16">
+        <v>5.175119549104999</v>
+      </c>
+      <c r="S16">
+        <v>0.0106549561657515</v>
+      </c>
+      <c r="T16">
+        <v>0.005497467923630671</v>
       </c>
     </row>
   </sheetData>
